--- a/Examen.xlsx
+++ b/Examen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrateur.HALITIM.001\Desktop\ExamenIntraTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EABE65A-8B12-447E-A0F4-1B3294B9EF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0553DEE-FDB3-426B-A43D-DCDB73B35154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29010" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20355" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Début de mon travail</t>
+  </si>
+  <si>
+    <t>Suite de mon travail</t>
   </si>
 </sst>
 </file>
@@ -51,7 +54,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -61,6 +64,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -92,9 +101,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,21 +386,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
